--- a/data/pca/factorExposure/factorExposure_2017-11-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02102704182528739</v>
+        <v>-0.01172740032457647</v>
       </c>
       <c r="C2">
-        <v>-0.005101537101698337</v>
+        <v>-0.03830663266047695</v>
       </c>
       <c r="D2">
-        <v>-0.002123774740006611</v>
+        <v>0.02856983609724513</v>
       </c>
       <c r="E2">
-        <v>0.02337285302860841</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0265423971866248</v>
+      </c>
+      <c r="F2">
+        <v>0.03647833907402778</v>
+      </c>
+      <c r="G2">
+        <v>0.01331342632952821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.004481573110919081</v>
+        <v>-0.05716695387232326</v>
       </c>
       <c r="C3">
-        <v>-0.06696519929960001</v>
+        <v>-0.08098854925024804</v>
       </c>
       <c r="D3">
-        <v>-0.00352014256875435</v>
+        <v>0.01439843891334162</v>
       </c>
       <c r="E3">
-        <v>-0.03093382218633889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08197306803082</v>
+      </c>
+      <c r="F3">
+        <v>0.06365438480338148</v>
+      </c>
+      <c r="G3">
+        <v>0.06884702803276659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02391814483753838</v>
+        <v>-0.05409702825765175</v>
       </c>
       <c r="C4">
-        <v>-0.02745489655698497</v>
+        <v>-0.063098953260911</v>
       </c>
       <c r="D4">
-        <v>-0.02881403511584706</v>
+        <v>0.02213581647461366</v>
       </c>
       <c r="E4">
-        <v>0.04082541917277817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.001885019730343637</v>
+      </c>
+      <c r="F4">
+        <v>0.01683613273064305</v>
+      </c>
+      <c r="G4">
+        <v>0.04115678738778235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01874936848511315</v>
+        <v>-0.0316549349758114</v>
       </c>
       <c r="C6">
-        <v>-0.04372713346381794</v>
+        <v>-0.05693332430630752</v>
       </c>
       <c r="D6">
-        <v>-0.02497231749605194</v>
+        <v>0.01600558326709843</v>
       </c>
       <c r="E6">
-        <v>0.06553852704681899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.004476992716954522</v>
+      </c>
+      <c r="F6">
+        <v>0.01685199374948873</v>
+      </c>
+      <c r="G6">
+        <v>0.02289026990949427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01317342636048865</v>
+        <v>-0.01765996777028862</v>
       </c>
       <c r="C7">
-        <v>-0.0244339852556612</v>
+        <v>-0.03838745877696581</v>
       </c>
       <c r="D7">
-        <v>-0.07076612475819614</v>
+        <v>0.0124880078559548</v>
       </c>
       <c r="E7">
-        <v>-0.00899118250704024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01367369440746904</v>
+      </c>
+      <c r="F7">
+        <v>0.009758909195641294</v>
+      </c>
+      <c r="G7">
+        <v>0.07533019622208903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004982262541020007</v>
+        <v>0.003894777162719429</v>
       </c>
       <c r="C8">
-        <v>0.01868619752420622</v>
+        <v>-0.01336439275446762</v>
       </c>
       <c r="D8">
-        <v>-0.01595235315571565</v>
+        <v>0.003833821989612339</v>
       </c>
       <c r="E8">
-        <v>0.02174931144173677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01650009496846014</v>
+      </c>
+      <c r="F8">
+        <v>0.02315887808772224</v>
+      </c>
+      <c r="G8">
+        <v>0.02546474484178867</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01679546986782024</v>
+        <v>-0.026391265434377</v>
       </c>
       <c r="C9">
-        <v>-0.02715833358017886</v>
+        <v>-0.04295245957018283</v>
       </c>
       <c r="D9">
-        <v>-0.01958200457883271</v>
+        <v>0.01548089952691125</v>
       </c>
       <c r="E9">
-        <v>0.03049640783694269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.004046752471705418</v>
+      </c>
+      <c r="F9">
+        <v>0.01832426123860646</v>
+      </c>
+      <c r="G9">
+        <v>0.032254517851423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01275942713033664</v>
+        <v>-0.08848518669768994</v>
       </c>
       <c r="C10">
-        <v>-0.1006794898372058</v>
+        <v>0.1841561820709502</v>
       </c>
       <c r="D10">
-        <v>0.04558518710489682</v>
+        <v>-0.01869785904660972</v>
       </c>
       <c r="E10">
-        <v>-0.1434614125379095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02067321321826371</v>
+      </c>
+      <c r="F10">
+        <v>-0.01307810341074154</v>
+      </c>
+      <c r="G10">
+        <v>0.03676527485099813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.001139246640772415</v>
+        <v>-0.03473240913718594</v>
       </c>
       <c r="C11">
-        <v>-0.02370606188760787</v>
+        <v>-0.05359411157388777</v>
       </c>
       <c r="D11">
-        <v>-0.007831732037215018</v>
+        <v>0.001043987813055979</v>
       </c>
       <c r="E11">
-        <v>0.04915639848978494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.002840713389978185</v>
+      </c>
+      <c r="F11">
+        <v>0.02437268496273979</v>
+      </c>
+      <c r="G11">
+        <v>0.01199240898219871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.01103229903223961</v>
+        <v>-0.0322442616565938</v>
       </c>
       <c r="C12">
-        <v>-0.02740010426619302</v>
+        <v>-0.04518524698310672</v>
       </c>
       <c r="D12">
-        <v>-0.01343674925634348</v>
+        <v>0.005511626201763843</v>
       </c>
       <c r="E12">
-        <v>0.04376005148772905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.008679039280588488</v>
+      </c>
+      <c r="F12">
+        <v>0.005874754408353134</v>
+      </c>
+      <c r="G12">
+        <v>0.01761886764964058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01950451285579154</v>
+        <v>-0.009551971962401044</v>
       </c>
       <c r="C13">
-        <v>-0.0173296115037548</v>
+        <v>-0.03392921528895514</v>
       </c>
       <c r="D13">
-        <v>-0.003037660780215233</v>
+        <v>0.02460854829049458</v>
       </c>
       <c r="E13">
-        <v>0.02227828845925879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01984663840073585</v>
+      </c>
+      <c r="F13">
+        <v>0.02471726108562819</v>
+      </c>
+      <c r="G13">
+        <v>0.02558884695196663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007008673108676654</v>
+        <v>-0.007405904668005566</v>
       </c>
       <c r="C14">
-        <v>-0.01305515418310526</v>
+        <v>-0.02467858844357999</v>
       </c>
       <c r="D14">
-        <v>-0.01813071427175888</v>
+        <v>0.008369773661679762</v>
       </c>
       <c r="E14">
-        <v>0.009629621203519985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.004794733251562385</v>
+      </c>
+      <c r="F14">
+        <v>0.002448330267204711</v>
+      </c>
+      <c r="G14">
+        <v>0.03575687333287719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.003965240400565264</v>
+        <v>-0.03095431425159166</v>
       </c>
       <c r="C16">
-        <v>-0.02240933813565767</v>
+        <v>-0.04374521186164851</v>
       </c>
       <c r="D16">
-        <v>-0.01422458768644698</v>
+        <v>0.000719734362542371</v>
       </c>
       <c r="E16">
-        <v>0.04657407406225754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.00116048189536518</v>
+      </c>
+      <c r="F16">
+        <v>0.01040906771451966</v>
+      </c>
+      <c r="G16">
+        <v>0.01604970001149144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01191773740345083</v>
+        <v>-0.02925438506740899</v>
       </c>
       <c r="C19">
-        <v>-0.01826291788040299</v>
+        <v>-0.05490492743769443</v>
       </c>
       <c r="D19">
-        <v>-0.01330657924142755</v>
+        <v>0.01493515675199519</v>
       </c>
       <c r="E19">
-        <v>0.04229610207984751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.03822933637658945</v>
+      </c>
+      <c r="F19">
+        <v>0.04230357648143279</v>
+      </c>
+      <c r="G19">
+        <v>0.03384841144814502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.008209958230463202</v>
+        <v>-0.009607758329115866</v>
       </c>
       <c r="C20">
-        <v>-0.003496645945790985</v>
+        <v>-0.03531326478845353</v>
       </c>
       <c r="D20">
-        <v>-0.005650641955414769</v>
+        <v>0.0130523386485251</v>
       </c>
       <c r="E20">
-        <v>0.002890109960206977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.01982375911066684</v>
+      </c>
+      <c r="F20">
+        <v>0.008258959478574208</v>
+      </c>
+      <c r="G20">
+        <v>0.02725825664039983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01314315836703336</v>
+        <v>-0.0114439230912977</v>
       </c>
       <c r="C21">
-        <v>-0.03587101292297139</v>
+        <v>-0.03417237522028253</v>
       </c>
       <c r="D21">
-        <v>-0.02899003312670352</v>
+        <v>0.01586495951879996</v>
       </c>
       <c r="E21">
-        <v>0.02202099783127984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.02666172577064745</v>
+      </c>
+      <c r="F21">
+        <v>0.01970991166349541</v>
+      </c>
+      <c r="G21">
+        <v>0.04918712304134874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004305866887443888</v>
+        <v>-0.0249824723622547</v>
       </c>
       <c r="C24">
-        <v>-0.01933956519556665</v>
+        <v>-0.04645442987941988</v>
       </c>
       <c r="D24">
-        <v>-0.01090703447809314</v>
+        <v>0.006030628466775802</v>
       </c>
       <c r="E24">
-        <v>0.03995068133628402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.006754591430100221</v>
+      </c>
+      <c r="F24">
+        <v>0.02127130036142546</v>
+      </c>
+      <c r="G24">
+        <v>0.01533800266769285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01251880546558101</v>
+        <v>-0.04226191053453218</v>
       </c>
       <c r="C25">
-        <v>-0.03285645882790718</v>
+        <v>-0.05297661053438308</v>
       </c>
       <c r="D25">
-        <v>-0.009277603750187876</v>
+        <v>0.009919977055683501</v>
       </c>
       <c r="E25">
-        <v>0.04338475415063067</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01330702494049753</v>
+      </c>
+      <c r="F25">
+        <v>0.01477001065881826</v>
+      </c>
+      <c r="G25">
+        <v>0.02127161135581966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02216883960230471</v>
+        <v>-0.00680733770969163</v>
       </c>
       <c r="C26">
-        <v>-0.0008249061924568277</v>
+        <v>-0.008458857702164447</v>
       </c>
       <c r="D26">
-        <v>-0.009672249051240363</v>
+        <v>0.02388589542211458</v>
       </c>
       <c r="E26">
-        <v>6.305534681688077e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.009172218201665307</v>
+      </c>
+      <c r="F26">
+        <v>0.008102200084239375</v>
+      </c>
+      <c r="G26">
+        <v>0.02557460873990493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03011191230181797</v>
+        <v>-0.1132975551882226</v>
       </c>
       <c r="C28">
-        <v>-0.1480212784083338</v>
+        <v>0.2248627936506956</v>
       </c>
       <c r="D28">
-        <v>0.06780608702552443</v>
+        <v>-0.01003704281192497</v>
       </c>
       <c r="E28">
-        <v>-0.2175962794563432</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008604143837604248</v>
+      </c>
+      <c r="F28">
+        <v>-0.008435639992972369</v>
+      </c>
+      <c r="G28">
+        <v>0.0525460382659965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007466164061374883</v>
+        <v>-0.01161203359624004</v>
       </c>
       <c r="C29">
-        <v>-0.01497793272811897</v>
+        <v>-0.0188747797293736</v>
       </c>
       <c r="D29">
-        <v>-0.01302437024235498</v>
+        <v>0.007091669118040028</v>
       </c>
       <c r="E29">
-        <v>0.007747872974777164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.003076035311319279</v>
+      </c>
+      <c r="F29">
+        <v>-0.006294594136226773</v>
+      </c>
+      <c r="G29">
+        <v>0.02914208991540534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03664524467842743</v>
+        <v>-0.0378556436582707</v>
       </c>
       <c r="C30">
-        <v>-0.02810578035114712</v>
+        <v>-0.07172519999476208</v>
       </c>
       <c r="D30">
-        <v>0.02904393354141544</v>
+        <v>0.02680963884906546</v>
       </c>
       <c r="E30">
-        <v>0.08997136222007085</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0187442411934317</v>
+      </c>
+      <c r="F30">
+        <v>0.04483445399035232</v>
+      </c>
+      <c r="G30">
+        <v>-0.006830750579768445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.004129559744962605</v>
+        <v>-0.04134344756911567</v>
       </c>
       <c r="C31">
-        <v>-0.04755250975190604</v>
+        <v>-0.03097156048211678</v>
       </c>
       <c r="D31">
-        <v>-0.01890773132063524</v>
+        <v>0.003065870781261054</v>
       </c>
       <c r="E31">
-        <v>0.0228697339118533</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01167907196264305</v>
+      </c>
+      <c r="F31">
+        <v>-0.03491382413999639</v>
+      </c>
+      <c r="G31">
+        <v>0.02878553930584905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.01188418645826318</v>
+        <v>-0.002820493265058495</v>
       </c>
       <c r="C32">
-        <v>-0.002272956962198857</v>
+        <v>-0.03498830382949862</v>
       </c>
       <c r="D32">
-        <v>-0.03151399950937286</v>
+        <v>-0.004752133339655248</v>
       </c>
       <c r="E32">
-        <v>0.01945553822738628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01170628277357781</v>
+      </c>
+      <c r="F32">
+        <v>0.07854247541240585</v>
+      </c>
+      <c r="G32">
+        <v>0.05228360930779274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.009041806004416867</v>
+        <v>-0.02806417036064451</v>
       </c>
       <c r="C33">
-        <v>-0.03006088312234382</v>
+        <v>-0.05120768387467894</v>
       </c>
       <c r="D33">
-        <v>0.009884010928728759</v>
+        <v>0.01385973337069569</v>
       </c>
       <c r="E33">
-        <v>0.04202877919694917</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.01775171705325014</v>
+      </c>
+      <c r="F33">
+        <v>0.02549582984358607</v>
+      </c>
+      <c r="G33">
+        <v>0.02071492736465864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001520038858743322</v>
+        <v>-0.04514279747411896</v>
       </c>
       <c r="C34">
-        <v>-0.02492915006503348</v>
+        <v>-0.05346334903584732</v>
       </c>
       <c r="D34">
-        <v>-0.02154590172013234</v>
+        <v>-0.006277249289522888</v>
       </c>
       <c r="E34">
-        <v>0.04309965733694478</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01267762248328719</v>
+      </c>
+      <c r="F34">
+        <v>0.02103758357204961</v>
+      </c>
+      <c r="G34">
+        <v>0.0254721322915385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01180834108364407</v>
+        <v>-0.009935950836460908</v>
       </c>
       <c r="C36">
-        <v>-0.01561278926330332</v>
+        <v>-0.004965765706002935</v>
       </c>
       <c r="D36">
-        <v>-0.005281188712095024</v>
+        <v>0.01112907889127021</v>
       </c>
       <c r="E36">
-        <v>0.003295167838433338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001055721080064502</v>
+      </c>
+      <c r="F36">
+        <v>-0.0009270706647633214</v>
+      </c>
+      <c r="G36">
+        <v>0.01779335556473344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.005596971386837418</v>
+        <v>-0.03338289153072434</v>
       </c>
       <c r="C38">
-        <v>-0.02338953516510702</v>
+        <v>-0.02264364336396296</v>
       </c>
       <c r="D38">
-        <v>-0.004760652801638323</v>
+        <v>-0.008320634442813852</v>
       </c>
       <c r="E38">
-        <v>0.02023795078795556</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003345664876084791</v>
+      </c>
+      <c r="F38">
+        <v>0.006346774397385273</v>
+      </c>
+      <c r="G38">
+        <v>0.02720038414552625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006261913595866415</v>
+        <v>-0.02963555167795053</v>
       </c>
       <c r="C39">
-        <v>-0.01147509465773752</v>
+        <v>-0.08315476170340128</v>
       </c>
       <c r="D39">
-        <v>-0.02338776422056143</v>
+        <v>0.01137592375281034</v>
       </c>
       <c r="E39">
-        <v>0.06805261310455615</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.008213307942879288</v>
+      </c>
+      <c r="F39">
+        <v>0.03960162018405666</v>
+      </c>
+      <c r="G39">
+        <v>0.01703035187341168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.007005711983864737</v>
+        <v>-0.01919098986392438</v>
       </c>
       <c r="C40">
-        <v>-0.02330840534892973</v>
+        <v>-0.03209287392724386</v>
       </c>
       <c r="D40">
-        <v>-0.007615872551935696</v>
+        <v>0.0128278684573107</v>
       </c>
       <c r="E40">
-        <v>0.04519487304538351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01451317488134376</v>
+      </c>
+      <c r="F40">
+        <v>0.02389165366837825</v>
+      </c>
+      <c r="G40">
+        <v>0.01805994817072984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.003243739755883299</v>
+        <v>-0.01227785819767719</v>
       </c>
       <c r="C41">
-        <v>-0.01743789742470897</v>
+        <v>0.002246854378508091</v>
       </c>
       <c r="D41">
-        <v>0.002069546349212724</v>
+        <v>0.003389159470183191</v>
       </c>
       <c r="E41">
-        <v>-0.007193807769011496</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002968003955787175</v>
+      </c>
+      <c r="F41">
+        <v>0.0002611634057787884</v>
+      </c>
+      <c r="G41">
+        <v>0.01224172188180775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08143875064818326</v>
+        <v>-0.03689340672958012</v>
       </c>
       <c r="C42">
-        <v>-0.1176334507899652</v>
+        <v>-0.05554544384226443</v>
       </c>
       <c r="D42">
-        <v>0.07514033286316846</v>
+        <v>0.1027790053615444</v>
       </c>
       <c r="E42">
-        <v>0.1673723732132162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.0651020652444555</v>
+      </c>
+      <c r="F42">
+        <v>-0.1096101161918582</v>
+      </c>
+      <c r="G42">
+        <v>-0.2123324677968659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.009690499337891748</v>
+        <v>-0.02703089468058491</v>
       </c>
       <c r="C43">
-        <v>-0.01765509961217837</v>
+        <v>-0.007003015016189724</v>
       </c>
       <c r="D43">
-        <v>0.001824878733658762</v>
+        <v>0.00353649737837707</v>
       </c>
       <c r="E43">
-        <v>-0.002135320068849679</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0006809023727887584</v>
+      </c>
+      <c r="F43">
+        <v>0.001097285324398703</v>
+      </c>
+      <c r="G43">
+        <v>0.01634498350945461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.00195113329789654</v>
+        <v>-0.01609481315535847</v>
       </c>
       <c r="C44">
-        <v>-0.003906531512529327</v>
+        <v>-0.04870446181758323</v>
       </c>
       <c r="D44">
-        <v>-0.01759752153025659</v>
+        <v>0.006426468968459253</v>
       </c>
       <c r="E44">
-        <v>0.01840571620869689</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01782385275973155</v>
+      </c>
+      <c r="F44">
+        <v>0.02652334571949868</v>
+      </c>
+      <c r="G44">
+        <v>0.0317049080432044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.008593646179679866</v>
+        <v>-0.001098178972521764</v>
       </c>
       <c r="C46">
-        <v>-0.005984790259251051</v>
+        <v>-0.01605261639685907</v>
       </c>
       <c r="D46">
-        <v>-0.01062639782929367</v>
+        <v>0.01152845588776626</v>
       </c>
       <c r="E46">
-        <v>0.0255191646883748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.003964823883810763</v>
+      </c>
+      <c r="F46">
+        <v>-0.009448558681423672</v>
+      </c>
+      <c r="G46">
+        <v>0.0218027718861474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.003762691261690278</v>
+        <v>-0.07130961541055478</v>
       </c>
       <c r="C47">
-        <v>-0.07045671249387009</v>
+        <v>-0.06283606795964709</v>
       </c>
       <c r="D47">
-        <v>-0.008400281918555151</v>
+        <v>-0.005078921092387743</v>
       </c>
       <c r="E47">
-        <v>0.04212801643730869</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01467183307250463</v>
+      </c>
+      <c r="F47">
+        <v>-0.06093291852373826</v>
+      </c>
+      <c r="G47">
+        <v>0.02115936175367112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00312540208594581</v>
+        <v>-0.01800915804831527</v>
       </c>
       <c r="C48">
-        <v>-0.02836328649150789</v>
+        <v>-0.009444724548562327</v>
       </c>
       <c r="D48">
-        <v>-0.006159900159298901</v>
+        <v>0.0008631828868671484</v>
       </c>
       <c r="E48">
-        <v>0.009364432862962971</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003117997526211196</v>
+      </c>
+      <c r="F48">
+        <v>-0.01308627844505022</v>
+      </c>
+      <c r="G48">
+        <v>0.02234469024496243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.003372321427302402</v>
+        <v>-0.07565290688510053</v>
       </c>
       <c r="C50">
-        <v>-0.07124107475716364</v>
+        <v>-0.06423911509935432</v>
       </c>
       <c r="D50">
-        <v>-0.04062444040294375</v>
+        <v>-0.003792438717171538</v>
       </c>
       <c r="E50">
-        <v>0.05080741206020441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01345287541379009</v>
+      </c>
+      <c r="F50">
+        <v>-0.05879635125568459</v>
+      </c>
+      <c r="G50">
+        <v>0.04517028699497468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01000987928957044</v>
+        <v>-0.01537300346108716</v>
       </c>
       <c r="C51">
-        <v>-0.008671650832547914</v>
+        <v>-0.02854340609629472</v>
       </c>
       <c r="D51">
-        <v>-0.009876708405073056</v>
+        <v>0.008757724627027591</v>
       </c>
       <c r="E51">
-        <v>-0.01706529868916014</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.006990892870900429</v>
+      </c>
+      <c r="F51">
+        <v>0.03654944216830818</v>
+      </c>
+      <c r="G51">
+        <v>0.0395803983858451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.00760049279003703</v>
+        <v>-0.09593819434603811</v>
       </c>
       <c r="C53">
-        <v>-0.08662160907123734</v>
+        <v>-0.07637230293366795</v>
       </c>
       <c r="D53">
-        <v>-0.02936963601629149</v>
+        <v>-0.006400434208139694</v>
       </c>
       <c r="E53">
-        <v>0.06952816719770744</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04025646453973399</v>
+      </c>
+      <c r="F53">
+        <v>-0.06492214494246566</v>
+      </c>
+      <c r="G53">
+        <v>0.02200680426159992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0006658502507197804</v>
+        <v>-0.02818908832813914</v>
       </c>
       <c r="C54">
-        <v>-0.02941994236638867</v>
+        <v>-0.004447867381692113</v>
       </c>
       <c r="D54">
-        <v>-0.009580014408623692</v>
+        <v>-0.004306635141447758</v>
       </c>
       <c r="E54">
-        <v>0.005494811632701827</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.00245148167013873</v>
+      </c>
+      <c r="F54">
+        <v>-0.002412007375243369</v>
+      </c>
+      <c r="G54">
+        <v>0.02849270503230518</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0003866762840086677</v>
+        <v>-0.07146687821625045</v>
       </c>
       <c r="C55">
-        <v>-0.06849111342409427</v>
+        <v>-0.07059119684624787</v>
       </c>
       <c r="D55">
-        <v>-0.01981618684997222</v>
+        <v>-0.005016812394416641</v>
       </c>
       <c r="E55">
-        <v>0.0760350273988242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02690570934438838</v>
+      </c>
+      <c r="F55">
+        <v>-0.06157885779191087</v>
+      </c>
+      <c r="G55">
+        <v>0.01026376100923301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.00459690352587828</v>
+        <v>-0.1465583443169003</v>
       </c>
       <c r="C56">
-        <v>-0.1309639074626338</v>
+        <v>-0.09992191026384332</v>
       </c>
       <c r="D56">
-        <v>-0.02208512163684274</v>
+        <v>-0.01539774441210167</v>
       </c>
       <c r="E56">
-        <v>0.0941624630881053</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04519335597253796</v>
+      </c>
+      <c r="F56">
+        <v>-0.1053372383664202</v>
+      </c>
+      <c r="G56">
+        <v>-0.001086316347690822</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02490881015361592</v>
+        <v>-0.01315395092468921</v>
       </c>
       <c r="C57">
-        <v>-0.03279875456351913</v>
+        <v>-0.0121656678830141</v>
       </c>
       <c r="D57">
-        <v>-0.002383196312927799</v>
+        <v>0.02367197893039021</v>
       </c>
       <c r="E57">
-        <v>0.03100639449962512</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02838067093666168</v>
+      </c>
+      <c r="F57">
+        <v>0.01536684304843061</v>
+      </c>
+      <c r="G57">
+        <v>0.02189910129441483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.007052698704419305</v>
+        <v>-0.06899785587886856</v>
       </c>
       <c r="C58">
-        <v>-0.131379429971721</v>
+        <v>-0.07647404131360874</v>
       </c>
       <c r="D58">
-        <v>0.09692184406332206</v>
+        <v>0.0209070737677058</v>
       </c>
       <c r="E58">
-        <v>0.1516610217717545</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9447961303977218</v>
+      </c>
+      <c r="F58">
+        <v>-0.2264556856099395</v>
+      </c>
+      <c r="G58">
+        <v>0.06417509907182727</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03887888731323148</v>
+        <v>-0.1521435395508251</v>
       </c>
       <c r="C59">
-        <v>-0.1485911511610367</v>
+        <v>0.2137690274052756</v>
       </c>
       <c r="D59">
-        <v>0.08625317692970363</v>
+        <v>-0.01734289496840425</v>
       </c>
       <c r="E59">
-        <v>-0.180294848105835</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01667464309004376</v>
+      </c>
+      <c r="F59">
+        <v>0.008318616763181116</v>
+      </c>
+      <c r="G59">
+        <v>0.01695020296868608</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04062686311919642</v>
+        <v>-0.2941090570071104</v>
       </c>
       <c r="C60">
-        <v>-0.1976412656156682</v>
+        <v>-0.08368470570523773</v>
       </c>
       <c r="D60">
-        <v>0.03924502616660277</v>
+        <v>0.006106842221436537</v>
       </c>
       <c r="E60">
-        <v>0.0618914022195307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02315389412498064</v>
+      </c>
+      <c r="F60">
+        <v>0.3794316527618912</v>
+      </c>
+      <c r="G60">
+        <v>-0.0636733099514729</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00141549575789321</v>
+        <v>-0.03132450388516929</v>
       </c>
       <c r="C61">
-        <v>-0.02788444911859565</v>
+        <v>-0.06377734684549201</v>
       </c>
       <c r="D61">
-        <v>-0.01445008533471421</v>
+        <v>0.00474346281280327</v>
       </c>
       <c r="E61">
-        <v>0.06044301765009873</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.005466654399246137</v>
+      </c>
+      <c r="F61">
+        <v>0.02517869928977737</v>
+      </c>
+      <c r="G61">
+        <v>0.01823875540460048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007102663022426242</v>
+        <v>-0.01390390417193298</v>
       </c>
       <c r="C63">
-        <v>-0.0140919845272581</v>
+        <v>-0.02644875621530893</v>
       </c>
       <c r="D63">
-        <v>-0.01104789427244842</v>
+        <v>0.007511583796364843</v>
       </c>
       <c r="E63">
-        <v>0.02088178326094345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.01294919765775572</v>
+      </c>
+      <c r="F63">
+        <v>-0.01134129145592627</v>
+      </c>
+      <c r="G63">
+        <v>0.0267767663362357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.007309456066315756</v>
+        <v>-0.04601548314764478</v>
       </c>
       <c r="C64">
-        <v>-0.04311165558877206</v>
+        <v>-0.03591225616350072</v>
       </c>
       <c r="D64">
-        <v>-0.01098597474196674</v>
+        <v>0.004477670225582151</v>
       </c>
       <c r="E64">
-        <v>0.04739701822680593</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01009919132901906</v>
+      </c>
+      <c r="F64">
+        <v>0.01431108423532905</v>
+      </c>
+      <c r="G64">
+        <v>0.01667288525503322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02138578034459128</v>
+        <v>-0.07979190343337159</v>
       </c>
       <c r="C65">
-        <v>-0.05093910713069456</v>
+        <v>-0.06774374428486134</v>
       </c>
       <c r="D65">
-        <v>-0.0252980783891286</v>
+        <v>0.01478404559478253</v>
       </c>
       <c r="E65">
-        <v>0.07003045600562094</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.004141131264444028</v>
+      </c>
+      <c r="F65">
+        <v>0.03866056231612432</v>
+      </c>
+      <c r="G65">
+        <v>0.01079909073667208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.006538199103746725</v>
+        <v>-0.05213969785639101</v>
       </c>
       <c r="C66">
-        <v>-0.03036143479221112</v>
+        <v>-0.1168743611864128</v>
       </c>
       <c r="D66">
-        <v>-0.0111706998736703</v>
+        <v>0.01043687817116814</v>
       </c>
       <c r="E66">
-        <v>0.0961888153461677</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01133872844943625</v>
+      </c>
+      <c r="F66">
+        <v>0.04696856381117574</v>
+      </c>
+      <c r="G66">
+        <v>0.006767097898419591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003393733267940266</v>
+        <v>-0.05807364822013675</v>
       </c>
       <c r="C67">
-        <v>-0.04066545085636224</v>
+        <v>-0.02551892868775936</v>
       </c>
       <c r="D67">
-        <v>-0.001950338293423121</v>
+        <v>-0.007088208988209176</v>
       </c>
       <c r="E67">
-        <v>0.02231387000755329</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003315920805540336</v>
+      </c>
+      <c r="F67">
+        <v>0.004261617709333354</v>
+      </c>
+      <c r="G67">
+        <v>0.02678706993755702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05476282196398281</v>
+        <v>-0.1295551980016383</v>
       </c>
       <c r="C68">
-        <v>-0.1299353848341326</v>
+        <v>0.2697100315572001</v>
       </c>
       <c r="D68">
-        <v>0.08101515270305289</v>
+        <v>0.001219423144048869</v>
       </c>
       <c r="E68">
-        <v>-0.1966027505221714</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.02003485794930975</v>
+      </c>
+      <c r="F68">
+        <v>-0.01515204088118073</v>
+      </c>
+      <c r="G68">
+        <v>0.02137307201329428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0006152684228592678</v>
+        <v>-0.07492964338666377</v>
       </c>
       <c r="C69">
-        <v>-0.05670636898613834</v>
+        <v>-0.06072832455306887</v>
       </c>
       <c r="D69">
-        <v>-0.01130103925496857</v>
+        <v>-0.009535449034013098</v>
       </c>
       <c r="E69">
-        <v>0.04510518061697796</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03008514474852836</v>
+      </c>
+      <c r="F69">
+        <v>-0.03905369605360444</v>
+      </c>
+      <c r="G69">
+        <v>0.01781869361790702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03812986234011457</v>
+        <v>-0.1290086217872264</v>
       </c>
       <c r="C71">
-        <v>-0.1227331617444227</v>
+        <v>0.2268039019140241</v>
       </c>
       <c r="D71">
-        <v>0.06299100670555073</v>
+        <v>-0.007639780770520393</v>
       </c>
       <c r="E71">
-        <v>-0.1883798030234277</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02691918909399135</v>
+      </c>
+      <c r="F71">
+        <v>-0.01979200242378039</v>
+      </c>
+      <c r="G71">
+        <v>0.03606588113995046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.007358159240137171</v>
+        <v>-0.08569174943511848</v>
       </c>
       <c r="C72">
-        <v>-0.120340770990508</v>
+        <v>-0.08151039151907277</v>
       </c>
       <c r="D72">
-        <v>-0.0221101084178169</v>
+        <v>-0.009765826032864374</v>
       </c>
       <c r="E72">
-        <v>0.1563410649787317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01551027999670035</v>
+      </c>
+      <c r="F72">
+        <v>0.03230858938524232</v>
+      </c>
+      <c r="G72">
+        <v>-0.004944997969669553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05333504876147984</v>
+        <v>-0.4070311886578295</v>
       </c>
       <c r="C73">
-        <v>-0.2326640898478095</v>
+        <v>-0.1001474421492289</v>
       </c>
       <c r="D73">
-        <v>0.07897599923004223</v>
+        <v>0.009511108731055696</v>
       </c>
       <c r="E73">
-        <v>0.1269143406320546</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06525519400897213</v>
+      </c>
+      <c r="F73">
+        <v>0.531549212686027</v>
+      </c>
+      <c r="G73">
+        <v>-0.1237954323100527</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.006021318951936855</v>
+        <v>-0.11753200260365</v>
       </c>
       <c r="C74">
-        <v>-0.1196052649633252</v>
+        <v>-0.1155592956905826</v>
       </c>
       <c r="D74">
-        <v>-0.01589968468631791</v>
+        <v>-0.01139504477903084</v>
       </c>
       <c r="E74">
-        <v>0.102613198398867</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03696074053313481</v>
+      </c>
+      <c r="F74">
+        <v>-0.07194982868334968</v>
+      </c>
+      <c r="G74">
+        <v>0.01552296953134686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01371437526968824</v>
+        <v>-0.2625371639977596</v>
       </c>
       <c r="C75">
-        <v>-0.2379862400881244</v>
+        <v>-0.1433633103794242</v>
       </c>
       <c r="D75">
-        <v>-0.0173264798340693</v>
+        <v>-0.03310440227624866</v>
       </c>
       <c r="E75">
-        <v>0.1614861433743106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.0746085457891483</v>
+      </c>
+      <c r="F75">
+        <v>-0.2192076575881429</v>
+      </c>
+      <c r="G75">
+        <v>-0.03209251384235288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.001891760991491862</v>
+        <v>-0.1407036328741821</v>
       </c>
       <c r="C76">
-        <v>-0.2196636656669971</v>
+        <v>-0.1209263966732076</v>
       </c>
       <c r="D76">
-        <v>-0.04122839738976733</v>
+        <v>-0.02314640766367355</v>
       </c>
       <c r="E76">
-        <v>0.1640912624681914</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0701616513098067</v>
+      </c>
+      <c r="F76">
+        <v>-0.1409057604620081</v>
+      </c>
+      <c r="G76">
+        <v>0.005209059483766499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01012983595757758</v>
+        <v>-0.06118757235904836</v>
       </c>
       <c r="C77">
-        <v>-0.03038366896059478</v>
+        <v>-0.060881496899307</v>
       </c>
       <c r="D77">
-        <v>-0.01635055036602589</v>
+        <v>0.01187367174845061</v>
       </c>
       <c r="E77">
-        <v>0.05803340987858484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.03832000901174713</v>
+      </c>
+      <c r="F77">
+        <v>0.0210075654887876</v>
+      </c>
+      <c r="G77">
+        <v>0.04054902893943475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.007755819947178886</v>
+        <v>-0.04098403173927714</v>
       </c>
       <c r="C78">
-        <v>-0.02344129878677116</v>
+        <v>-0.05314564408817521</v>
       </c>
       <c r="D78">
-        <v>-0.01858889463944281</v>
+        <v>0.0051007964939523</v>
       </c>
       <c r="E78">
-        <v>0.04939102892982984</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0170208228338661</v>
+      </c>
+      <c r="F78">
+        <v>0.04166407051492708</v>
+      </c>
+      <c r="G78">
+        <v>0.02988822499566717</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02001287851311577</v>
+        <v>-0.06475677581461943</v>
       </c>
       <c r="C80">
-        <v>-0.217397191897009</v>
+        <v>-0.07456993255694117</v>
       </c>
       <c r="D80">
-        <v>-0.9122677285819859</v>
+        <v>0.01279400185318608</v>
       </c>
       <c r="E80">
-        <v>-0.263011153757757</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.07471417611386634</v>
+      </c>
+      <c r="F80">
+        <v>0.03247606684319256</v>
+      </c>
+      <c r="G80">
+        <v>0.9193831020908627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.01005754933541403</v>
+        <v>-0.1452205375046811</v>
       </c>
       <c r="C81">
-        <v>-0.1745595825753706</v>
+        <v>-0.09274033766491943</v>
       </c>
       <c r="D81">
-        <v>-0.02598550600949378</v>
+        <v>-0.01741047479016454</v>
       </c>
       <c r="E81">
-        <v>0.1195819366169187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04806936900918082</v>
+      </c>
+      <c r="F81">
+        <v>-0.1374668416120206</v>
+      </c>
+      <c r="G81">
+        <v>0.008547012277803035</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.0424213121018433</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03331761599159504</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002386760378085607</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01896981296832707</v>
+      </c>
+      <c r="F82">
+        <v>-0.0004590430827707469</v>
+      </c>
+      <c r="G82">
+        <v>-0.005381861730722878</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.005390828618697353</v>
+        <v>-0.03002838905428312</v>
       </c>
       <c r="C83">
-        <v>-0.03501520039288534</v>
+        <v>-0.01941975039844092</v>
       </c>
       <c r="D83">
-        <v>3.814329890613726e-05</v>
+        <v>0.004933777736004131</v>
       </c>
       <c r="E83">
-        <v>0.01783459041398088</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0262368081208893</v>
+      </c>
+      <c r="F83">
+        <v>0.02283135323799148</v>
+      </c>
+      <c r="G83">
+        <v>0.02684453297137003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01711281991953217</v>
+        <v>-0.2416058896071013</v>
       </c>
       <c r="C85">
-        <v>-0.2168687477992088</v>
+        <v>-0.1480437021276755</v>
       </c>
       <c r="D85">
-        <v>-0.01808103367292379</v>
+        <v>-0.02205984559935171</v>
       </c>
       <c r="E85">
-        <v>0.1960488980523878</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1179719237938102</v>
+      </c>
+      <c r="F85">
+        <v>-0.2069250895793083</v>
+      </c>
+      <c r="G85">
+        <v>-0.05599006071766029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-5.504644629046427e-06</v>
+        <v>-0.009967334451215866</v>
       </c>
       <c r="C86">
-        <v>-0.0108634088992253</v>
+        <v>-0.02299948205342154</v>
       </c>
       <c r="D86">
-        <v>-0.01470341024459477</v>
+        <v>0.009831664536613927</v>
       </c>
       <c r="E86">
-        <v>0.02680855789000854</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02253255070447102</v>
+      </c>
+      <c r="F86">
+        <v>0.02310996829936418</v>
+      </c>
+      <c r="G86">
+        <v>0.05319557706657457</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005760058628936202</v>
+        <v>-0.01627360655298964</v>
       </c>
       <c r="C87">
-        <v>-0.02104368586418255</v>
+        <v>-0.02789063825851336</v>
       </c>
       <c r="D87">
-        <v>-0.01499521584877027</v>
+        <v>0.01132325991726017</v>
       </c>
       <c r="E87">
-        <v>0.03778693396157529</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07745302795213363</v>
+      </c>
+      <c r="F87">
+        <v>0.05912128864627195</v>
+      </c>
+      <c r="G87">
+        <v>0.03889654314036156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.006562440195751876</v>
+        <v>-0.0888052407096826</v>
       </c>
       <c r="C88">
-        <v>-0.05519739967312856</v>
+        <v>-0.05397964934789536</v>
       </c>
       <c r="D88">
-        <v>0.004717527229958425</v>
+        <v>0.02087687257367545</v>
       </c>
       <c r="E88">
-        <v>0.01905957650241402</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.002763214744606277</v>
+      </c>
+      <c r="F88">
+        <v>-0.002198446478037186</v>
+      </c>
+      <c r="G88">
+        <v>0.02348226131278323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.08032229444094084</v>
+        <v>-0.2177099094055186</v>
       </c>
       <c r="C89">
-        <v>-0.2419683571753394</v>
+        <v>0.3726216266220265</v>
       </c>
       <c r="D89">
-        <v>0.1583827130763063</v>
+        <v>-0.009570892315186688</v>
       </c>
       <c r="E89">
-        <v>-0.3370301087463526</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01111108140955203</v>
+      </c>
+      <c r="F89">
+        <v>-0.03586973736824317</v>
+      </c>
+      <c r="G89">
+        <v>0.02696468858832183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.05488801350646576</v>
+        <v>-0.1824151424181597</v>
       </c>
       <c r="C90">
-        <v>-0.1501787320953858</v>
+        <v>0.335848743836325</v>
       </c>
       <c r="D90">
-        <v>0.1312334587384281</v>
+        <v>-0.0119819726726875</v>
       </c>
       <c r="E90">
-        <v>-0.275238861928495</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.006575447176287478</v>
+      </c>
+      <c r="F90">
+        <v>-0.04646924255819577</v>
+      </c>
+      <c r="G90">
+        <v>0.003728158006678876</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.013736198819461</v>
+        <v>-0.214084243680895</v>
       </c>
       <c r="C91">
-        <v>-0.2388586534032173</v>
+        <v>-0.1368505557312537</v>
       </c>
       <c r="D91">
-        <v>-0.02075438640836476</v>
+        <v>-0.02648312790127363</v>
       </c>
       <c r="E91">
-        <v>0.198549099133746</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08543722594612684</v>
+      </c>
+      <c r="F91">
+        <v>-0.1944842440370482</v>
+      </c>
+      <c r="G91">
+        <v>-0.01302767575088383</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.03072535939506144</v>
+        <v>-0.2120597120615803</v>
       </c>
       <c r="C92">
-        <v>-0.3049417087920942</v>
+        <v>0.2697960197283133</v>
       </c>
       <c r="D92">
-        <v>0.1227029693126332</v>
+        <v>-0.05571121237259585</v>
       </c>
       <c r="E92">
-        <v>-0.239387357868674</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.005136547976435472</v>
+      </c>
+      <c r="F92">
+        <v>-0.1393258278186198</v>
+      </c>
+      <c r="G92">
+        <v>0.06013168212325337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05833389989997818</v>
+        <v>-0.2050722857369767</v>
       </c>
       <c r="C93">
-        <v>-0.2170524129416647</v>
+        <v>0.3341480346666</v>
       </c>
       <c r="D93">
-        <v>0.1711499005530727</v>
+        <v>-0.01893850183060081</v>
       </c>
       <c r="E93">
-        <v>-0.3220016046054481</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01187184258770577</v>
+      </c>
+      <c r="F93">
+        <v>-0.01780938253861494</v>
+      </c>
+      <c r="G93">
+        <v>-0.0005119820070900969</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03557237988045481</v>
+        <v>-0.276490305435636</v>
       </c>
       <c r="C94">
-        <v>-0.2867195758301875</v>
+        <v>-0.1561106811467702</v>
       </c>
       <c r="D94">
-        <v>0.02126760840432871</v>
+        <v>-0.01446531343067826</v>
       </c>
       <c r="E94">
-        <v>0.1913784354021911</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.09914685313107638</v>
+      </c>
+      <c r="F94">
+        <v>-0.3872269904804733</v>
+      </c>
+      <c r="G94">
+        <v>-0.1168065024016705</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.007351555395565593</v>
+        <v>-0.08259211283993319</v>
       </c>
       <c r="C95">
-        <v>-0.09122737541217973</v>
+        <v>-0.07508154566006359</v>
       </c>
       <c r="D95">
-        <v>0.07054488625214177</v>
+        <v>-0.008350684816366031</v>
       </c>
       <c r="E95">
-        <v>0.06608581272402804</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0774469262341215</v>
+      </c>
+      <c r="F95">
+        <v>0.1557330741397083</v>
+      </c>
+      <c r="G95">
+        <v>-0.07063682744975344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.02196470035819927</v>
+        <v>-0.212793823789915</v>
       </c>
       <c r="C98">
-        <v>-0.1980745270035724</v>
+        <v>-0.04440656782217334</v>
       </c>
       <c r="D98">
-        <v>0.05367631916750721</v>
+        <v>-0.01948651874036904</v>
       </c>
       <c r="E98">
-        <v>0.05761752169122396</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06700286941973628</v>
+      </c>
+      <c r="F98">
+        <v>0.2551889941942762</v>
+      </c>
+      <c r="G98">
+        <v>-0.03881844462575367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008896655566747669</v>
+        <v>-0.01305527815282602</v>
       </c>
       <c r="C101">
-        <v>-0.02722425054576193</v>
+        <v>-0.02016160485834713</v>
       </c>
       <c r="D101">
-        <v>-0.006365913712295853</v>
+        <v>0.008310392274837056</v>
       </c>
       <c r="E101">
-        <v>0.02114956944509295</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03517010090436577</v>
+      </c>
+      <c r="F101">
+        <v>-0.02502134320580792</v>
+      </c>
+      <c r="G101">
+        <v>0.03670941081392342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02378172872753481</v>
+        <v>-0.1261952122571995</v>
       </c>
       <c r="C102">
-        <v>-0.1278794812984163</v>
+        <v>-0.07888944408834173</v>
       </c>
       <c r="D102">
-        <v>-0.006932459102810197</v>
+        <v>-0.001038374489292392</v>
       </c>
       <c r="E102">
-        <v>0.08838811244658037</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0438625293606999</v>
+      </c>
+      <c r="F102">
+        <v>-0.06464164379462696</v>
+      </c>
+      <c r="G102">
+        <v>-0.01444265384312648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.003088505698539871</v>
+        <v>-0.005984306034999646</v>
       </c>
       <c r="C103">
-        <v>-0.03031064823879272</v>
+        <v>-0.005972640999206844</v>
       </c>
       <c r="D103">
-        <v>-0.01845466356478747</v>
+        <v>0.0003985382914728228</v>
       </c>
       <c r="E103">
-        <v>0.02498038564958166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001751841112703235</v>
+      </c>
+      <c r="F103">
+        <v>-0.01069894062013317</v>
+      </c>
+      <c r="G103">
+        <v>0.01399746107073869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9782480484282412</v>
+        <v>-0.04351277196297229</v>
       </c>
       <c r="C104">
-        <v>0.1557395629510252</v>
+        <v>0.04475549119214459</v>
       </c>
       <c r="D104">
-        <v>-0.03681309289805184</v>
+        <v>0.9857694251868288</v>
       </c>
       <c r="E104">
-        <v>0.04628887262509587</v>
+        <v>-0.04500721401615919</v>
+      </c>
+      <c r="F104">
+        <v>-0.03741101262622065</v>
+      </c>
+      <c r="G104">
+        <v>-0.00144805093674074</v>
       </c>
     </row>
   </sheetData>
